--- a/full_data/temp.xlsx
+++ b/full_data/temp.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,19 +360,82 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>occupation</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>birth_place</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>death_place</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>locations</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>marriage</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gilles Pieters (1637 - ?), Amsterdam 1660-06-12
-Israel  de Paul, alias:  de Pul | de Poul (1632 - 1680), Amsterdam 1666-01-22
-Abraham Olofs (1659 - 1686), Amsterdam 1681-03-28
-Andries Pieters (1647 - 1693), Amsterdam 1687-11-28
-Johannes   Groenewout, alias:  Jan Groenewoud (1663 - ?), Amsterdam 1697-08-23
+          <t xml:space="preserve">cartographer 
+etcher 
+geographer 
+copperplate engraver 
+publisher of prints 
+mathematician 
+draughtsman 
+kaartgraveur 
+kaarttekenaar 
+kaartenmaker 
+publisher (1612-1630)
+bookseller (1612-1630)
 </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Assum  (Uitgeest) circa 1581</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Amsterdam buried on 1632-09-04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alkmaar (1607-1607)
+Amsterdam (1607-1628)
+West-Indië (1628-1629)
+Amsterdam (1629-1632)
+</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geertje Gijsbertsdr, alias:  Giertje / Guertje Ghijsbers (1582 - ca. 1622), Amsterdam 1607-04-28
+Aefje Willems  Saskers, alias:  Aafgie (1592 - ?), Amsterdam 1624-08-30
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>http://www.vondel.humanities.uva.nl/ecartico/persons/39229</t>
         </is>
       </c>
     </row>
